--- a/biology/Botanique/Panicum_hirticaule/Panicum_hirticaule.xlsx
+++ b/biology/Botanique/Panicum_hirticaule/Panicum_hirticaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panicum hirticaule est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire du continent américain.
 Ce sont des plantes herbacées annuelles, cespiteuses, aux tiges (chaumes) dressées ou géniculées ascendantes et aux inflorescences en panicules.
@@ -513,19 +525,21 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Panicum hirticaule est une plante herbacée annuelle, cespiteuses aux tiges (chaumes) dressées ou géniculées ascendantes ou décombantes, pouvant atteindre 80 cm de long et 2,5 mm de diamètre, qui peuvent s'enraciner au niveau des nœuds inférieurs.
 Les entrenœuds des chaumes sont distalement glabres, ou hispides  avec des poils munis de tubercules à leur base, tandis que les nœuds sont pubescents. Des ramifications nombreuses se développent à la partie inférieure ou moyenne des chaumes. Les feuilles ont une gaine hispide, avec des poils munis de tubercules à leur base. La ligule est une membrane ciliée de 1,5 à 2,5 mm de long.
-Le limbe foliaire, glabre ou pileux mesure de 7 à 27 cm de long sur 6 à 15 mm de large[2].
+Le limbe foliaire, glabre ou pileux mesure de 7 à 27 cm de long sur 6 à 15 mm de large.
 L'inflorescence est une panicule ouverte, ovale, de 13 à 35 cm de long, avec des ramifications droites, les ramifications primaires ayant de 6 à 13 cm de long.
 Elle regroupe des épillets solitaires, apprimés, ovales, comprimés dorsalement, de 2,5 mm de long environ. Chaque épillet comprend un fleuron basal stérile et un fleuron fertile sans extension du rachillet.
-Les épillets fertiles sont pédicellés. Ils se détachent en entier à maturité[2].
+Les épillets fertiles sont pédicellés. Ils se détachent en entier à maturité.
 Ils sont sous-tendus par deux glumes membraneuses dissemblables, atteignant l'apex des fleurons, ovales, à l'apex aigu, plus fines que la lemme fertile.
 La glume inférieure, de 1,2  à 1,5 mm long, présente 3 à 5 nervures.
 La glume supérieure, plus longue (de 2,1 à 2,2 mm) compte 7 nervures.
-Les fleurons comptent 3 anthères orange, de 0,9 à 1 mm de long[2].
-Le fruit est un caryopse au péricarpe adhérent, de 1,3 à 1,4 mm de long, de forme ellipsoïdale, de couleur très pâle[2]. 
+Les fleurons comptent 3 anthères orange, de 0,9 à 1 mm de long.
+Le fruit est un caryopse au péricarpe adhérent, de 1,3 à 1,4 mm de long, de forme ellipsoïdale, de couleur très pâle. 
 </t>
         </is>
       </c>
@@ -554,14 +568,16 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Panicum hirticaule s'étend[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Panicum hirticaule s'étend :
 en Amérique du Nord : au Mexique (Basse-Californie, Chihuahua, Durango, Nuevo León, Sinaloa, Sonora, Chiapas, Colima, Guanajuato, Guerrero, Jalisco, Mexico, Michoacán, Morelos, Nayarit, Oaxaca, Tabasco, Yucatán), dans le sud-ouest des États-Unis (Nouveau-Mexique, Texas, Arizona, Californie, Nevada) ;
 en Amérique du Sud : Venezuela (Guárico), Pérou (Cajamarca, Huánuco, La Libertad, Piura), Équateur (Guayas) ;
 en  Amérique centrale (Costa Rica, Salvador, Guatemala, Honduras, Nicaragua) et dans les Caraïbes (Cuba, Haïti, Saint-Domingue).
 Une variété, Panicum hirticaule var. milliaceum (ou Panicum sonorum), aux panicules plus grandes et plus florifères, était cultivée autrefois le long du cours inférieur du Colorado par les peuples Cocopa et Yuman, et récoltée pour ses graines comestibles. Elle n'est plus cultivée depuis le début du XXe siècle   depuis la disparition de l'écosystème du delta du Colorado et du système agricole des Cocopas qui en dépendait.
-Désormais cette plante n'est plus cultivée que par quelques familles Guarijio conservatrices dans la région du rio Mayo et par l'organisation Native Seeds/SEARCH à Tucson[4].
+Désormais cette plante n'est plus cultivée que par quelques familles Guarijio conservatrices dans la région du rio Mayo et par l'organisation Native Seeds/SEARCH à Tucson.
 </t>
         </is>
       </c>
@@ -590,13 +606,85 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Panicum hirticaule a été décrite par le botaniste tchèque, J.Presl, et publiée en 1830 dans son Reliquiae Haenkeanae 1(4-5): 308[5].
-Étymologie
-Le nom générique « Panicum » dérive d'un terme latin, panis, le pain, avec le suffixe adjectival -icum, en référence à l'utilisation des graines de panic (millet commun) pour fabriquer du pain[6]. L'épithète spécifique « hirticaule » dérive de deux racines latines :  hirtus, hérissé, velu, et caulis, tige, en référence aux tiges plus ou moins couvertes de poils[7].
-Synonymes
-Selon Catalogue of Life                                   (12 mars 2018)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Panicum hirticaule a été décrite par le botaniste tchèque, J.Presl, et publiée en 1830 dans son Reliquiae Haenkeanae 1(4-5): 308.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Panicum_hirticaule</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panicum_hirticaule</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Panicum » dérive d'un terme latin, panis, le pain, avec le suffixe adjectival -icum, en référence à l'utilisation des graines de panic (millet commun) pour fabriquer du pain. L'épithète spécifique « hirticaule » dérive de deux racines latines :  hirtus, hérissé, velu, et caulis, tige, en référence aux tiges plus ou moins couvertes de poils.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Panicum_hirticaule</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panicum_hirticaule</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (12 mars 2018) :
 Panicum capillare var. glabrum Vasey ex Brandegee, nom. nud.
 Panicum capillare var. hirticaule (J.Presl) Gould
 Panicum capillare var. miliaceum Vasey
@@ -607,8 +695,43 @@
 Panicum hirticaule var. verrucosum Zuloaga &amp; Morrone
 Panicum polygamum var. hirticaule (J.Presl) E.Fourn.
 Panicum sonorum Beal
-Liste des variétés et sous-espèces
-Selon Tropicos                                           (12 mars 2018)[9] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Panicum_hirticaule</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panicum_hirticaule</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (12 mars 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Panicum hirticaule subsp. hirticaule
 Panicum hirticaule subsp. sonorum (Beal) Freckmann &amp; Lelong
